--- a/CC.xlsx
+++ b/CC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="156">
   <si>
     <t>https://stackoverflow.com/questions/22240946/where-are-the-functions-in-the-c-standard-library-defined</t>
   </si>
@@ -643,6 +643,286 @@
   </si>
   <si>
     <t>The linker is complaining about _start missing, which is what we would expect from our previous debugging.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>We also have a linker error on puts, which is to be expected since it's a libc function. But how do we print "hello" without puts?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The linux kernel exposes a bunch of syscalls, which are functions that user-space programs can enter to interact with the OS.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>You can see a list of syscalls by running "man syscalls" or visiting this site:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://man7.org/linux/man-pages/man2/syscalls.2.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>How do we find out which syscall puts uses? We can either look through the syscall list, or simply install strace to trace</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>syscalls and write a simple program that uses puts.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The strace method is extremely useful. If you don't know how to do something with syscalls,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>do it with libc and then strace it to see which syscalls it uses on the target architecture.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$ cat &gt; puts.c &lt;&lt; "EOF"</t>
+  </si>
+  <si>
+    <t>puts("hello");</t>
+  </si>
+  <si>
+    <t>$ gcc puts.c</t>
+  </si>
+  <si>
+    <t>- stuff we don't care about -</t>
+  </si>
+  <si>
+    <t>write(1, "hello\n", 6) = 6</t>
+  </si>
+  <si>
+    <t>exit_group(0) = ?</t>
+  </si>
+  <si>
+    <t>+++ exited with 0 +++</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">strace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>./a.out &gt; /dev/null</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Note how I pipe stdout to /dev/null in strace? That's because strace output is in stderr and we don't want to have it mixed with</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>a.out's output.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Let's check the manpage for write:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$ man 2 write</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SYNOPSIS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> #include &lt;unistd.h&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ssize_t write(int fd, const void *buf, size_t count);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>write()  writes  up  to  count bytes from the buffer pointed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>buf to the file referred to by the file descriptor fd.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>In linux, there are 3 standard file descriptors:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>- stdin: used to pipe data into the program or to read user input.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>- stdout: output</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>- stderr: alternate output for error messages</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>If we read "man stdout", we will see that they are simply defined as 0, 1 and 2.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>So all we have to do is replace our puts with a write to stream 1 (stdout)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#include &lt;unistd.h&gt;</t>
+  </si>
+  <si>
+    <t>write(1, "hello\n", 6);</t>
+  </si>
+  <si>
+    <t>Let's try to compile it again:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$ gcc -s -O2 -nostdlib hello.c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hello.c: In function ‘main’:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>write(1, "hello\n", 6);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/usr/lib/gcc/x86_64-pc-linux-gnu/4.9.3/../../../../x86_64-pc-linux-gnu/bin/ld: warning: cannot find entry symbol _start; defaulting to 0000000000400120</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/tmp/ccJXwSsr.o: In function `main':</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hello.c:(.text.startup+0x14): undefined reference to `write'</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>collect2: error: ld returned 1 exit status</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hello.c:6:5: warning: ignoring return value of ‘write’, declared with attribute warn_unused_result [-Wunused-result]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Oh no! The "write" function is part of the standard library! How do we invoke syscalls without having to link the standard lib?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Let's take a look at section "A.2.1 Calling Conventions" of the AMD64 ABI specification. If you are on i386 (32-bit), just follow along, we will port this to i386 soon in a moment.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>If you're completely clueless about asm, you should still be able to understand once you see the example. I'm not that good at asm myself.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://software.intel.com/sites/default/files/article/402129/mpx-linux64-abi.pdf</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. User-level applications use as integer registers for passing the sequence %rdi, %rsi, %rdx, %rcx, %r8 and %r9. The kernel interface</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   uses %rdi, %rsi, %rdx, %r10, %r8 and %r9.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2. A system-call is done via the syscall instruction. The kernel destroys registers %rcx and %r11.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3. The number of the syscall has to be passed in register %rax.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4. System-calls are limited to six arguments, no argument is passed directly on the stack.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5. Returning from the syscall, register %rax contains the result of the system-call. A value in the range between -4095 and -1 indicates an error, it is -errno.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6. Only values of class INTEGER or class MEMORY are passed to the kernel.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>In poor words, all we need to do is write an asm wrapper that:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4. executes "syscall"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5. returns the contents of rax</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. takes the syscall number followed by either pointers or integers as parameters</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2. sets rax to the syscall number</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3. sets rdi, rsi, rdx, r10, r8 and r9 to the parameters. calls that take less than 6 parameters will ignore the excess ones.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Now if we read section 3.4 of the specification or the quick cheatsheet at http://wiki.osdev.org/Calling_Conventions, we will</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>see that on AMD64 the registers used to pass parameters to regular functions are almost the same as the syscalls, except for r10 which</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>is replaced with rcx. The return register is also the same (rax).</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>This means that our syscall wrapper will only be able to accept and forward a maximum of 5 parameters (because the first parameter is already being used to pass the syscall number).</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>We could use the stack to take more than 6 parameters, but let's not make our lives more complicated when we don't even need to call syscalls with 6 parameters yet.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -650,7 +930,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,6 +1012,47 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -753,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -761,6 +1082,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1078,32 +1405,32 @@
     <col min="1" max="16384" width="3.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1111,79 +1438,77 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:4" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:4" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
@@ -1196,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C93"/>
+  <dimension ref="B1:C198"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="T186" sqref="T186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1231,127 +1556,134 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="2:3" ht="12" x14ac:dyDescent="0.2">
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="12" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="2:3" ht="12" x14ac:dyDescent="0.2">
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="12" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" spans="2:3" ht="12" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="C37" s="8"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
@@ -1571,6 +1903,455 @@
     <row r="93" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B94" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B96" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B97" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C98" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B100" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B101" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B103" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B104" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B106" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B107" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B108" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B110" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B111" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B112" s="5"/>
+      <c r="C112" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+    </row>
+    <row r="114" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B114" s="5"/>
+      <c r="C114" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B115" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B116" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B118" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B119" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B120" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B121" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B122" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B123" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B124" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B126" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B127" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B129" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B131" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B133" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C134" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C135" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B137" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C138" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C139" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B141" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C142" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C143" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C144" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B146" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B147" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B149" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B150" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C150" s="7"/>
+    </row>
+    <row r="151" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+    </row>
+    <row r="152" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B152" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152" s="7"/>
+    </row>
+    <row r="153" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B153" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153" s="7"/>
+    </row>
+    <row r="154" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B154" s="7"/>
+      <c r="C154" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+    </row>
+    <row r="156" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B156" s="7"/>
+      <c r="C156" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B157" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157" s="7"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B158" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B160" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B161" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B162" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C162" s="5"/>
+    </row>
+    <row r="163" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B163" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C163" s="5"/>
+    </row>
+    <row r="164" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B164" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B165" s="5"/>
+      <c r="C165" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B166" s="5"/>
+      <c r="C166" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B167" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C167" s="5"/>
+    </row>
+    <row r="168" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B168" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C168" s="5"/>
+    </row>
+    <row r="169" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B169" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C169" s="5"/>
+    </row>
+    <row r="170" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B170" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C170" s="5"/>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B171" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B172" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B173" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B175" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C176" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B178" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B179" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B180" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B181" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B182" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B183" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B184" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B185" s="5"/>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B186" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C187" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B188" s="5"/>
+      <c r="C188" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B189" s="5"/>
+      <c r="C189" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B190" s="5"/>
+      <c r="C190" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" ht="12" x14ac:dyDescent="0.2">
+      <c r="B191" s="5"/>
+      <c r="C191" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B193" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B194" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B195" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B197" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B198" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
